--- a/src/redmine/mavenPro开发计划.xlsx
+++ b/src/redmine/mavenPro开发计划.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>mavenPro项目添加功能计划</t>
   </si>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目管理工具使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ant maven git svn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,14 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各种开源分布式框架了解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搭建redis服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>涉及服务器中间件方面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,7 +159,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后期可以使用 hibernate mybatis 等orm框架</t>
+    <t>搭建redis服务器并进行相应配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种开源分布式框架了解及学习使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理工具熟练使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期可以使用 hibernate mybatis 等orm框架，比较框架差异</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring框架深入研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源消息队列学习及使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -453,22 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,10 +486,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:N5"/>
+      <selection activeCell="H25" sqref="H25:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,273 +835,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
+      <c r="H10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="7"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="15"/>
+      <c r="B11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="8"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1092,15 +1117,15 @@
       <c r="F14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
@@ -1112,13 +1137,13 @@
       <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -1130,13 +1155,13 @@
       <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1148,13 +1173,13 @@
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
@@ -1166,39 +1191,39 @@
       <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>6</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>7</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
@@ -1210,93 +1235,98 @@
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24"/>
+      <c r="A22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>2</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="H24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
+      <c r="H24" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>3</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F25" s="7"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
+      <c r="H25" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>4</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="15"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
@@ -1308,31 +1338,31 @@
       <c r="E27" s="2"/>
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="24"/>
+      <c r="A28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -1344,13 +1374,13 @@
       <c r="F29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
@@ -1362,52 +1392,52 @@
       <c r="F30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="15"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>3</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>4</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="15"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>5</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="15"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
@@ -1419,125 +1449,148 @@
       <c r="E34" s="2"/>
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="15"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="15"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="28"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>3</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="15"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="28"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="15"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="28"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="15"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="28"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="5">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
       <c r="H41" s="13"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -1547,26 +1600,87 @@
       <c r="N41" s="15"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
+      <c r="A42" s="5">
+        <v>6</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
-    <mergeCell ref="A42:N42"/>
+  <mergeCells count="59">
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="A43:N43"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A13:N13"/>
@@ -1582,42 +1696,6 @@
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="H10:N10"/>
     <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="H41:N41"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H40:N40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/redmine/mavenPro开发计划.xlsx
+++ b/src/redmine/mavenPro开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>mavenPro项目添加功能计划</t>
   </si>
@@ -184,6 +184,10 @@
   </si>
   <si>
     <t>开源消息队列学习及使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lucene系, 包含solr 和 elasticsearch,可以先玩个简单的搜索引擎:悟空,逐步深入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +469,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -485,36 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:N25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -835,277 +839,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="8"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1117,15 +1121,15 @@
       <c r="F14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
@@ -1137,13 +1141,15 @@
       <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
+      <c r="H15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -1155,13 +1161,13 @@
       <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1173,13 +1179,13 @@
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
@@ -1191,39 +1197,39 @@
       <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>6</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>7</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="28"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
@@ -1235,31 +1241,31 @@
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="28"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -1271,13 +1277,13 @@
       <c r="F23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="28"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
@@ -1287,15 +1293,15 @@
         <v>34</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
@@ -1305,28 +1311,28 @@
         <v>45</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="28"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>4</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="28"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
@@ -1338,31 +1344,31 @@
       <c r="E27" s="2"/>
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -1374,13 +1380,13 @@
       <c r="F29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="28"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
@@ -1392,52 +1398,52 @@
       <c r="F30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="28"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>3</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>4</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>5</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
@@ -1449,148 +1455,148 @@
       <c r="E34" s="2"/>
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="28"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="28"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="28"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>3</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="28"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>4</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="28"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>5</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="28"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="13"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -1603,47 +1609,76 @@
       <c r="A42" s="5">
         <v>6</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="28"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="H27:N27"/>
     <mergeCell ref="H42:N42"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
@@ -1660,42 +1695,13 @@
     <mergeCell ref="H38:N38"/>
     <mergeCell ref="H39:N39"/>
     <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/redmine/mavenPro开发计划.xlsx
+++ b/src/redmine/mavenPro开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>mavenPro项目添加功能计划</t>
   </si>
@@ -188,6 +188,14 @@
   </si>
   <si>
     <t>lucene系, 包含solr 和 elasticsearch,可以先玩个简单的搜索引擎:悟空,逐步深入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,37 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,6 +497,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:N34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -839,277 +847,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="8"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1121,15 +1129,15 @@
       <c r="F14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
@@ -1141,15 +1149,15 @@
       <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -1161,13 +1169,13 @@
       <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1179,13 +1187,13 @@
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
@@ -1197,39 +1205,39 @@
       <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>6</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>7</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
@@ -1241,31 +1249,31 @@
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -1277,13 +1285,13 @@
       <c r="F23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
@@ -1293,15 +1301,15 @@
         <v>34</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
@@ -1311,28 +1319,28 @@
         <v>45</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>4</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
@@ -1344,31 +1352,31 @@
       <c r="E27" s="2"/>
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -1380,13 +1388,13 @@
       <c r="F29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="28"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
@@ -1398,52 +1406,52 @@
       <c r="F30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="21"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>3</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>4</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="28"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>5</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="28"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
@@ -1455,149 +1463,153 @@
       <c r="E34" s="2"/>
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="28"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="28"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="28"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>3</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="28"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>4</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="28"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>5</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="21"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="28"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="13"/>
+      <c r="B41" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
@@ -1609,40 +1621,83 @@
       <c r="A42" s="5">
         <v>6</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="28"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
     <mergeCell ref="A43:N43"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A1:N1"/>
@@ -1659,49 +1714,6 @@
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="H10:N10"/>
     <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/redmine/mavenPro开发计划.xlsx
+++ b/src/redmine/mavenPro开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>mavenPro项目添加功能计划</t>
   </si>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>junit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest请求的springboot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +481,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,36 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -847,277 +851,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="28"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="28"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="28"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="28"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="28"/>
+      <c r="H11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="8"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="31"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="22"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1129,15 +1135,15 @@
       <c r="F14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
@@ -1149,15 +1155,15 @@
       <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -1169,13 +1175,13 @@
       <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1187,13 +1193,13 @@
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
@@ -1205,39 +1211,39 @@
       <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>6</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>7</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="28"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
@@ -1249,31 +1255,31 @@
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="28"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -1285,13 +1291,13 @@
       <c r="F23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="28"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
@@ -1301,15 +1307,15 @@
         <v>34</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
@@ -1319,28 +1325,28 @@
         <v>45</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="28"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>4</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="28"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
@@ -1352,31 +1358,31 @@
       <c r="E27" s="2"/>
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="28"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="19"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -1388,13 +1394,13 @@
       <c r="F29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="28"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
@@ -1406,52 +1412,52 @@
       <c r="F30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="28"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>3</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>4</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>5</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="28"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
@@ -1463,150 +1469,150 @@
       <c r="E34" s="2"/>
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="28"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="19"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="28"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="28"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>3</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="28"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>4</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="28"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>5</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="28"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="13" t="s">
         <v>49</v>
       </c>
@@ -1621,47 +1627,76 @@
       <c r="A42" s="5">
         <v>6</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="28"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="H27:N27"/>
     <mergeCell ref="H42:N42"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
@@ -1678,42 +1713,13 @@
     <mergeCell ref="H38:N38"/>
     <mergeCell ref="H39:N39"/>
     <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/redmine/mavenPro开发计划.xlsx
+++ b/src/redmine/mavenPro开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>mavenPro项目添加功能计划</t>
   </si>
@@ -200,6 +200,14 @@
   </si>
   <si>
     <t>rest请求的springboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIO框架使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mina netty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -481,37 +489,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -531,6 +512,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:N11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -851,279 +862,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
       <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="29"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="8"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1135,15 +1146,15 @@
       <c r="F14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
@@ -1155,15 +1166,15 @@
       <c r="F15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="21"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -1175,13 +1186,13 @@
       <c r="F16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1193,13 +1204,13 @@
       <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
@@ -1211,39 +1222,46 @@
       <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>7</v>
       </c>
       <c r="F20" s="7"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="21"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
@@ -1255,31 +1273,31 @@
       <c r="E21" s="2"/>
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="21"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="29"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -1291,13 +1309,13 @@
       <c r="F23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
@@ -1307,15 +1325,15 @@
         <v>34</v>
       </c>
       <c r="F24" s="7"/>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="29"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
@@ -1325,28 +1343,28 @@
         <v>45</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="29"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>4</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
@@ -1358,31 +1376,31 @@
       <c r="E27" s="2"/>
       <c r="F27" s="8"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="20"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -1394,13 +1412,13 @@
       <c r="F29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
@@ -1412,52 +1430,52 @@
       <c r="F30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="21"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>3</v>
       </c>
       <c r="F31" s="7"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="29"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>4</v>
       </c>
       <c r="F32" s="7"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>5</v>
       </c>
       <c r="F33" s="7"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="29"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
@@ -1469,150 +1487,150 @@
       <c r="E34" s="2"/>
       <c r="F34" s="8"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="20"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="29"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19" t="s">
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="29"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>3</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19" t="s">
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>4</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19" t="s">
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>5</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19" t="s">
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="21"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="29"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="13" t="s">
         <v>49</v>
       </c>
@@ -1627,40 +1645,83 @@
       <c r="A42" s="5">
         <v>6</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="29"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H42:N42"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="H36:N36"/>
+    <mergeCell ref="H37:N37"/>
+    <mergeCell ref="H38:N38"/>
+    <mergeCell ref="H39:N39"/>
+    <mergeCell ref="H40:N40"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
     <mergeCell ref="A43:N43"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A1:N1"/>
@@ -1677,49 +1738,6 @@
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="H10:N10"/>
     <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="H42:N42"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="H36:N36"/>
-    <mergeCell ref="H37:N37"/>
-    <mergeCell ref="H38:N38"/>
-    <mergeCell ref="H39:N39"/>
-    <mergeCell ref="H40:N40"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/redmine/mavenPro开发计划.xlsx
+++ b/src/redmine/mavenPro开发计划.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>mavenPro项目添加功能计划</t>
   </si>
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>mina netty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目打包发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -387,19 +391,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -442,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -465,34 +456,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,36 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -849,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:N19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,279 +850,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="9" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="9" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="21"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="9" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="7" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -1143,18 +1131,18 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
@@ -1163,18 +1151,18 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
@@ -1183,16 +1171,16 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="29"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
@@ -1201,16 +1189,16 @@
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
@@ -1219,16 +1207,16 @@
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
@@ -1237,31 +1225,31 @@
       <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="29"/>
+      <c r="F20" s="6"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
@@ -1271,33 +1259,33 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="29"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
@@ -1306,16 +1294,16 @@
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
@@ -1324,16 +1312,16 @@
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="H24" s="27" t="s">
+      <c r="F24" s="6"/>
+      <c r="H24" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="29"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="21"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
@@ -1342,29 +1330,29 @@
       <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="H25" s="27" t="s">
+      <c r="F25" s="6"/>
+      <c r="H25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
+      <c r="F26" s="6"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="21"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
@@ -1374,33 +1362,33 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="7"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="21"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="20"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
@@ -1409,16 +1397,16 @@
       <c r="B29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="21"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
@@ -1427,55 +1415,55 @@
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>3</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
+      <c r="F31" s="6"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>4</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
+      <c r="F32" s="6"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>5</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
+      <c r="F33" s="6"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
@@ -1485,207 +1473,240 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="8"/>
+      <c r="F34" s="7"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="20"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>1</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="29"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>2</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27" t="s">
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="29"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>3</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27" t="s">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>4</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="27" t="s">
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="29"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>5</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="27" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="29"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A41" s="4"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="4">
+        <v>6</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="13" t="s">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="15"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="5">
-        <v>6</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
+      <c r="A42" s="4">
+        <v>7</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="H27:N27"/>
     <mergeCell ref="H42:N42"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
@@ -1702,42 +1723,13 @@
     <mergeCell ref="H38:N38"/>
     <mergeCell ref="H39:N39"/>
     <mergeCell ref="H40:N40"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="H27:N27"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H29:N29"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A22:N22"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/redmine/mavenPro开发计划.xlsx
+++ b/src/redmine/mavenPro开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -493,6 +514,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -502,13 +541,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,48 +558,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -866,7 +866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12:N12"/>
     </sheetView>
   </sheetViews>
@@ -879,330 +879,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="24">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="25" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="24">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="25" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="24">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="25" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="22" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="24">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="25" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="24">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="24">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="25" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="22" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="24">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="34" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="24">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="25" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="22" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="24">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="34" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="24">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="25" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="22" t="s">
+      <c r="G12" s="11"/>
+      <c r="H12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="24">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="25" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="11"/>
+      <c r="H13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="8"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="B12:E12"/>
@@ -1215,19 +1216,18 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A14:N14"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1239,104 +1239,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" s="24">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="24" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="24">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="24">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="24">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="24">
+      <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -1344,445 +1344,445 @@
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="14"/>
+      <c r="G7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="24">
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="24">
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="24">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="24">
+      <c r="B12" s="7">
         <v>2</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="22" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="24">
+      <c r="B13" s="7">
         <v>3</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="22" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="24">
+      <c r="B14" s="7">
         <v>4</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="24">
+      <c r="B15" s="7">
         <v>5</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="24">
+      <c r="B17" s="7">
         <v>1</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="24">
+      <c r="B18" s="7">
         <v>2</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="24">
+      <c r="B19" s="7">
         <v>3</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="24">
+      <c r="B20" s="7">
         <v>4</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="24">
+      <c r="B21" s="7">
         <v>5</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="24">
+      <c r="B22" s="7">
         <v>6</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="10"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="19"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>2</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="19"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>4</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="19"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="19"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>6</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
       <c r="I29" s="4" t="s">
         <v>40</v>
       </c>
@@ -1797,63 +1797,57 @@
       <c r="B30" s="3">
         <v>7</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="19"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
     <mergeCell ref="I8:O8"/>
     <mergeCell ref="I9:O9"/>
     <mergeCell ref="I21:O21"/>
@@ -1866,26 +1860,32 @@
     <mergeCell ref="I17:O17"/>
     <mergeCell ref="I18:O18"/>
     <mergeCell ref="I19:O19"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="I20:O20"/>
     <mergeCell ref="I30:O30"/>
     <mergeCell ref="I24:O24"/>
     <mergeCell ref="I25:O25"/>
     <mergeCell ref="I26:O26"/>
     <mergeCell ref="I27:O27"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1906,18 +1906,18 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
